--- a/02要求分析/非機能要求一覧_要求分析.xlsx
+++ b/02要求分析/非機能要求一覧_要求分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAB3505-AA2D-4734-AB41-263BFC9A68FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385D7115-B49C-4A2E-9B26-883A46395668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="855" windowWidth="19470" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19725" yWindow="285" windowWidth="20490" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -481,64 +481,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HTMLを用いてサイトを作成する。
-第二反復で実施予定。</t>
-    <rPh sb="5" eb="6">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ダイニ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第二反復、第三反復で実施予定。
-映画館予約システムへ拡張予定</t>
-    <rPh sb="0" eb="2">
-      <t>ダイニ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>エイガカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>利用者がIDとパスワードを入力し、システムが利用者を登録済みの会員情報と照合する。
 第一反復で実施</t>
     <rPh sb="0" eb="3">
@@ -570,6 +512,46 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>映画館予約システムへ拡張予定。
+第三反復で実施予定。</t>
+    <rPh sb="0" eb="3">
+      <t>エイガカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>swingを用いて実施する。
+第二反復で実施予定。</t>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1258,8 +1240,8 @@
   </sheetPr>
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1834,7 +1816,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1869,7 +1851,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.15">
@@ -2657,18 +2639,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,18 +2672,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02要求分析/非機能要求一覧_要求分析.xlsx
+++ b/02要求分析/非機能要求一覧_要求分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385D7115-B49C-4A2E-9B26-883A46395668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB69F56-0435-4713-B793-FB7FC802BA45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19725" yWindow="285" windowWidth="20490" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="255" windowWidth="18795" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -391,10 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>WANT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>会員とチケット、予約の情報をデータベースで管理できるようにする</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -407,22 +403,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>予約システムを他のシステムへ拡張できるような設計にする。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -512,23 +492,6 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>映画館予約システムへ拡張予定。
-第三反復で実施予定。</t>
-    <rPh sb="0" eb="3">
-      <t>エイガカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1240,8 +1203,8 @@
   </sheetPr>
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1649,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1795,13 +1758,13 @@
         <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -1810,13 +1773,13 @@
         <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1848,26 +1811,20 @@
         <v>36</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
@@ -2639,18 +2596,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2672,18 +2629,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>